--- a/CodeSnippets.Tests/Resources/SignedWorkbook.xlsx
+++ b/CodeSnippets.Tests/Resources/SignedWorkbook.xlsx
@@ -403,32 +403,32 @@
 </worksheet>
 </file>
 
-<file path=_xmlsignatures/sig1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=_xmlsignatures/sig2.xml><?xml version="1.0" encoding="utf-8"?>
 <Signature xmlns="http://www.w3.org/2000/09/xmldsig#" Id="idPackageSignature">
   <SignedInfo>
     <CanonicalizationMethod Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
     <SignatureMethod Algorithm="http://www.w3.org/2001/04/xmldsig-more#rsa-sha256"/>
     <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idPackageObject">
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-      <DigestValue>paFO7BAjAy9CXVxvBwFMXdAq8JoDTiUlHh2CCH8wSmM=</DigestValue>
+      <DigestValue>865noyrsQIZ/iGQaOy17F4L4zYuAkXH/d1o8r1nTiSE=</DigestValue>
     </Reference>
     <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idOfficeObject">
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-      <DigestValue>14Ax/mmmQq3kr73DO2dZQU0lwYtzcx2t/4jCoq4zGv0=</DigestValue>
+      <DigestValue>BsMA7Fjd0pglaUHKHScc3KWI1OF+Vubucc2ls0+/4VY=</DigestValue>
     </Reference>
     <Reference Type="http://uri.etsi.org/01903#SignedProperties" URI="#idSignedProperties">
       <Transforms>
         <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
       </Transforms>
       <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-      <DigestValue>w1VYkH8Wj/rtFpQQkchJmqcs0Omrzb1xDxrmBbzohuI=</DigestValue>
+      <DigestValue>seKWY+Ti+s0I2tZ2rOS1XVbjtbPzuMMG0m1NJk7nEzo=</DigestValue>
     </Reference>
   </SignedInfo>
-  <SignatureValue>FVe8Fe6YPs30gB5HTW60+jiIH1LK53fcbdnNalYzt3QO4jTzkCTR8b7O/2H6B1z9echRGWHvQR2G
-bMRca/n/zsyOQLF1QR+XTyjDp3N+Zfwt4i/UNOkgTZI8b8egks4xXK45dKP19sRdQjvDs25bwIXT
-CJZBXN3t2rl1SOnLq1h3IPxKmhghnFO/UBW5Rr9Hgsl+vQ/oBbuc25DbpkUBWBHHE+uHywxWsZmc
-hkElED7UyTG1LRapS42qRiG0bQj7OuPAtyo2hvDVpvxgqdVBgdxDLnzM/VmbV6DO8Irryr0Lq1kI
-Lt2R5atd2LXvFJ9p8cIvF9ee4AuzzDSAdtkYaQ==</SignatureValue>
+  <SignatureValue>e1TZ8txmLzVNDV0Rt4pGcqELXk+hy1jDef6rf624XQliTNnW/TCkjtCXEpWZYEy7t5fTzU1F/U4r
+bqFiD/tDUy/feN5XDEkehNnJu2wDZf3jne5WHjqQIYYYbHo3Ilackk7yqL2uJ5B+/CeD9OgwKS2M
+diMRY14T+8tJDrWTRnKFw8uVGh0ZX9ZKQJrDnOOkNwAV9o+dxn3e5cF1GGx47uaUuV8JagtF2V2/
+nif9iSqFl3lJRJ/XTs8DUAlcflKnrjNfIJ3t5POF4OiOzZyRU5JIHiD1h9bbdQZUIgnqDXjy6u8A
+yNc+OgNDm3I42jblisTZRigqjomPhYdcAi648Q==</SignatureValue>
   <KeyInfo>
     <X509Data>
       <X509Certificate>MIIFODCCBCCgAwIBAgIQSQY7K9BBlrOGn9Ruh360KDANBgkqhkiG9w0BAQsFADB8MQswCQYDVQQGEwJHQjEbMBkGA1UECBMSR3JlYXRlciBNYW5jaGVzdGVyMRAwDgYDVQQHEwdTYWxmb3JkMRgwFgYDVQQKEw9TZWN0aWdvIExpbWl0ZWQxJDAiBgNVBAMTG1NlY3RpZ28gUlNBIENvZGUgU2lnbmluZyBDQTAeFw0xOTAzMDcwMDAwMDBaFw0yMTAzMDYyMzU5NTlaMIGpMQswCQYDVQQGEwJERTEOMAwGA1UEEQwFNTE0NjcxHDAaBgNVBAgME05vcmRyaGVpbi1XZXN0ZmFsZW4xGjAYBgNVBAcMEUJlcmdpc2NoIEdsYWRiYWNoMRQwEgYDVQQJDAtBbXNlbHdlZyAxODEcMBoGA1UECgwTRHIuIFRob21hcyBCYXJuZWtvdzEcMBoGA1UEAwwTRHIuIFRob21hcyBCYXJuZWtvdzCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEBAOkfC84UAVFG+T6VyyLNxo+naVFtBj3pGhaub6yC0tyT8Tnzd6OaMf/Y8lIXLaY77ygEXPp1jKojXYEZ8GOPBHn30VMOewMfjfl3hHJKePZvqrRgE1URoYEAl0QRfxtryiRv+wKzGSQevLy2+nO6GIHn/7KAptJY270UUJMBP/yD2AFGcZBpyGFaLLPHwfI2Ool0vY1gcgkbUH6RCVv6yCoOHQRrRpf2SqviNjxXZqTXLJ2Ea0CZLbSGipVGNrjNeE8nhpGy6/A28+pplpEGECtjWC+ziDdvgOrK8azDNR7ynQNvvF4msyOsvRbiSFJzmxTZvMwlpOA9baNN3kzkGGkCAwEAAaOCAYYwggGCMB8GA1UdIwQYMBaAFA7hOqhTOjHVir7Bu61nGgOFrTQOMB0GA1UdDgQWBBTsDMDsVQQdrM7zVTXx9rd428l16jAOBgNVHQ8BAf8EBAMCB4AwDAYDVR0TAQH/BAIwADATBgNVHSUEDDAKBggrBgEFBQcDAzARBglghkgBhvhCAQEEBAMCBBAwQAYDVR0gBDkwNzA1BgwrBgEEAbIxAQIBAwIwJTAjBggrBgEFBQcCARYXaHR0cHM6Ly9zZWN0aWdvLmNvbS9DUFMwQwYDVR0fBDwwOjA4oDagNIYyaHR0cDovL2NybC5zZWN0aWdvLmNvbS9TZWN0aWdvUlNBQ29kZVNpZ25pbmdDQS5jcmwwcwYIKwYBBQUHAQEEZzBlMD4GCCsGAQUFBzAChjJodHRwOi8vY3J0LnNlY3RpZ28uY29tL1NlY3RpZ29SU0FDb2RlU2lnbmluZ0NBLmNydDAjBggrBgEFBQcwAYYXaHR0cDovL29jc3Auc2VjdGlnby5jb20wDQYJKoZIhvcNAQELBQADggEBAD1zHm5eQTWrqkEISj1/Ejgi+FJpVqKisCQFCtcoU1j60gelQT/pvrCvR852gDgcb7NQlbXykqeDICVhs2Q3Dp5EiHtrBS52Y1muwWFRHZuHSiYhgQjw/CwF5F67D2gZPQltzdUZemrhnsf/LoTxhLKyAGqN3aZ2A8Ub3fWaK54XpgFJpyAaePA2ArbmC9t83b7n0e/PsCY+w9nIy9jWXQPMUQOdKOHstJqf/9ONXATqXTZ0HFTSLObYaOxu5uPi5uRYoeM5hikmJLq0hIVIFgYH6ZtjTMRrruVDeu6lW/H1a47BG1DcmTnG9n4jlRVy4egQCZHRVKDGhMk0eIdeMrM=</X509Certificate>
@@ -449,10 +449,10 @@
       <Reference URI="/xl/_rels/workbook.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
         <Transforms>
           <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
             <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
             <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId4"/>
-            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
-            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
           </Transform>
           <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
         </Transforms>
@@ -461,7 +461,7 @@
       </Reference>
       <Reference URI="/xl/sharedStrings.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sharedStrings+xml">
         <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-        <DigestValue>1HYmxSPUqJneCBJeoQfv4UUcK0lQGdDL7TSNll8Hb2A=</DigestValue>
+        <DigestValue>lLzCXv5/1wJQVoQO1C21iUaddhi86BJpQzqOHNDJLEM=</DigestValue>
       </Reference>
       <Reference URI="/xl/styles.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.styles+xml">
         <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
@@ -473,18 +473,18 @@
       </Reference>
       <Reference URI="/xl/workbook.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sheet.main+xml">
         <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-        <DigestValue>QyrwLJEwnBjoF/jmCxnxYAkO/ES+gAXkX/FIsNHxR+c=</DigestValue>
+        <DigestValue>hKW4rlboI3rcunxQF+shc2ykdEz8XPUp1vqmygrvoF8=</DigestValue>
       </Reference>
       <Reference URI="/xl/worksheets/sheet1.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
         <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
-        <DigestValue>YxISynQwm0iOVjOM8FLfP88h5UOp5585Cl3SCAIfqcY=</DigestValue>
+        <DigestValue>3jUQX4ZXloEivAjlvrprFthwScwf7akbSfBwCoJypoc=</DigestValue>
       </Reference>
     </Manifest>
     <SignatureProperties>
       <SignatureProperty Id="idSignatureTime" Target="#idPackageSignature">
         <mdssi:SignatureTime xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature">
           <mdssi:Format>YYYY-MM-DDThh:mm:ssTZD</mdssi:Format>
-          <mdssi:Value>2019-12-01T08:20:48Z</mdssi:Value>
+          <mdssi:Value>2019-12-02T08:35:27Z</mdssi:Value>
         </mdssi:SignatureTime>
       </SignatureProperty>
     </SignatureProperties>
@@ -496,13 +496,13 @@
           <SetupID/>
           <SignatureText/>
           <SignatureImage/>
-          <SignatureComments>Demonstration</SignatureComments>
+          <SignatureComments>Testing</SignatureComments>
           <WindowsVersion>10.0</WindowsVersion>
           <OfficeVersion>16.0.12130/19</OfficeVersion>
           <ApplicationVersion>16.0.12130</ApplicationVersion>
-          <Monitors>1</Monitors>
-          <HorizontalResolution>1920</HorizontalResolution>
-          <VerticalResolution>1080</VerticalResolution>
+          <Monitors>2</Monitors>
+          <HorizontalResolution>2560</HorizontalResolution>
+          <VerticalResolution>1440</VerticalResolution>
           <ColorDepth>32</ColorDepth>
           <SignatureProviderId>{00000000-0000-0000-0000-000000000000}</SignatureProviderId>
           <SignatureProviderUrl/>
@@ -516,7 +516,7 @@
     <xd:QualifyingProperties xmlns:xd="http://uri.etsi.org/01903/v1.3.2#" Target="#idPackageSignature">
       <xd:SignedProperties Id="idSignedProperties">
         <xd:SignedSignatureProperties>
-          <xd:SigningTime>2019-12-01T08:20:48Z</xd:SigningTime>
+          <xd:SigningTime>2019-12-02T08:35:27Z</xd:SigningTime>
           <xd:SigningCertificate>
             <xd:Cert>
               <xd:CertDigest>
@@ -541,7 +541,7 @@
             </xd:CommitmentTypeId>
             <xd:AllSignedDataObjects/>
             <xd:CommitmentTypeQualifiers>
-              <xd:CommitmentTypeQualifier>Demonstration</xd:CommitmentTypeQualifier>
+              <xd:CommitmentTypeQualifier>Testing</xd:CommitmentTypeQualifier>
             </xd:CommitmentTypeQualifiers>
           </xd:CommitmentTypeIndication>
         </xd:SignedDataObjectProperties>
